--- a/Unity/TappyTown_Missions.xlsx
+++ b/Unity/TappyTown_Missions.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
